--- a/data/case1/11/Q_device_2.xlsx
+++ b/data/case1/11/Q_device_2.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.037489772193025309</v>
+        <v>0.051644320458384511</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.037489772238207611</v>
+        <v>-0.05164432047223172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.015319545583035856</v>
+        <v>-0.012642373872628131</v>
       </c>
       <c r="B2" s="0">
-        <v>0.015319545489232917</v>
+        <v>0.012642373860786543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.046153270933653491</v>
+        <v>-0.02119337501181344</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.046153270973311372</v>
+        <v>0.021193374990534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.063219395193632497</v>
+        <v>-0.04922999833962801</v>
       </c>
       <c r="B4" s="0">
-        <v>0.063219395106623943</v>
+        <v>0.049229998309049498</v>
       </c>
     </row>
   </sheetData>
